--- a/EmpMVC/UploadFile/Book2.xlsx
+++ b/EmpMVC/UploadFile/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nawin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5C7EF-6AAD-4E16-AEAB-982B93C3C8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C4EAE-A61C-4B22-9F16-027F83FD2628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="504" windowWidth="16956" windowHeight="9528" xr2:uid="{E2ED4E56-2CFF-45BF-8ABF-882855554724}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2ED4E56-2CFF-45BF-8ABF-882855554724}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>sql</t>
   </si>
@@ -56,15 +56,6 @@
     <t>expected_training</t>
   </si>
   <si>
-    <t>expected_1</t>
-  </si>
-  <si>
-    <t>expected_2</t>
-  </si>
-  <si>
-    <t>expected_3</t>
-  </si>
-  <si>
     <t>qazs</t>
   </si>
   <si>
@@ -119,112 +110,10 @@
     <t>angular</t>
   </si>
   <si>
-    <t>javascript</t>
-  </si>
-  <si>
-    <t>navin@mail.com</t>
-  </si>
-  <si>
-    <t>Daniel thomas</t>
-  </si>
-  <si>
-    <t>Sangavi</t>
-  </si>
-  <si>
-    <t>Daniel@mail.com</t>
-  </si>
-  <si>
-    <t>Sangavi@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navin </t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>allan</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>sparrow</t>
-  </si>
-  <si>
-    <t>patrick</t>
-  </si>
-  <si>
-    <t>alex@mail.com</t>
-  </si>
-  <si>
-    <t>allan@mail.com</t>
-  </si>
-  <si>
-    <t>tom@mail.com</t>
-  </si>
-  <si>
-    <t>jack@mail.com</t>
-  </si>
-  <si>
-    <t>sparrow@mail.com</t>
-  </si>
-  <si>
-    <t>pat@mail.com</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Cplus</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>csharp</t>
-  </si>
-  <si>
-    <t>ruby</t>
-  </si>
-  <si>
-    <t>asp</t>
-  </si>
-  <si>
-    <t>ajax</t>
-  </si>
-  <si>
-    <t>cplus</t>
-  </si>
-  <si>
-    <t>jquery</t>
-  </si>
-  <si>
-    <t>mango</t>
-  </si>
-  <si>
-    <t>cybersecurity</t>
-  </si>
-  <si>
-    <t>networking</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>react</t>
-  </si>
-  <si>
-    <t>fullstack</t>
+    <t>raviteja</t>
+  </si>
+  <si>
+    <t>raviteja@ltts.com</t>
   </si>
 </sst>
 </file>
@@ -587,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE7A559-DB5E-4F55-8818-B71EC290F8E1}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +487,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -614,261 +503,45 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>40020489</v>
+        <v>1456</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>40020490</v>
+        <v>2563</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>40020491</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>40020492</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>40020493</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>40020494</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>40020495</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>40020496</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>40020497</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{12A7F009-070E-4CF4-94D8-056E9484A45F}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{774C9E28-6E31-4263-B6D6-457D4687333D}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{58897C37-F868-49BB-B538-A4B41F67C2ED}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{7CECE301-4079-45C6-A41A-3994ED5B4370}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{63923EE8-4DBB-45D5-9AA6-F675939F8A1C}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{84E7CD25-9789-478F-9974-7CCB32516E80}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{A473F2E6-6CF3-4FD2-8270-5E0DABB648D8}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{C40CB9D1-C3EF-47C7-8817-5A7B042B0E14}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{22FD153C-924E-49FA-94BA-190DAB7014AC}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{98C99A10-9604-42D4-87E8-40178921B79E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B468738A-6F8E-4CB8-BB34-FA6DC307BE31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -889,25 +562,25 @@
         <v>12346</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -915,25 +588,25 @@
         <v>12347</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,25 +614,25 @@
         <v>12348</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -967,25 +640,25 @@
         <v>12349</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -993,25 +666,25 @@
         <v>12350</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
